--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>CaseID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>employee_ids</t>
   </si>
   <si>
-    <t>["7e2f1608-b2e4-11e7-93d8-5254001aba5d","7e2fc6f6-b2e4-11e7-93d8-5254001aba5d","7e306cb1-b2e4-11e7-93d8-5254001aba5d","7e31ef71-b2e4-11e7-93d8-5254001aba5d","7e3142f6-b2e4-11e7-93d8-5254001aba5d"]</t>
-  </si>
-  <si>
     <t>to_org_id</t>
   </si>
   <si>
@@ -101,6 +98,22 @@
   </si>
   <si>
     <t>/hr/v1/employees/op/transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["7e2bb13d-b2e4-11e7-93d8-5254001aba5d","7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","7e2dba5c-b2e4-11e7-93d8-5254001aba5d","7e2f1608-b2e4-11e7-93d8-5254001aba5d"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["7e2fc6f6-b2e4-11e7-93d8-5254001aba5d","7e306cb1-b2e4-11e7-93d8-5254001aba5d","7e3142f6-b2e4-11e7-93d8-5254001aba5d","7e31ef71-b2e4-11e7-93d8-5254001aba5d","7e3324f3-b2e4-11e7-93d8-5254001aba5d"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +484,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -480,10 +493,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -498,9 +511,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -527,24 +540,41 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -555,10 +585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,21 +603,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>CaseID</t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>to_org_id</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>操作成功！</t>
   </si>
   <si>
     <t>TransferIn</t>
@@ -159,11 +150,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +472,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -493,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -513,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -545,36 +533,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -585,50 +573,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>CaseID</t>
   </si>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${addDepartment.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://console.t.upvi.com/bapi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +101,14 @@
   </si>
   <si>
     <t>TransferIn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +485,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -501,17 +505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,30 +543,30 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +600,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>CaseID</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_3</t>
+  </si>
+  <si>
+    <t>TransferIn_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["b8a23753-0f75-11e7-9aa4-00163e007053"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +529,7 @@
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -567,6 +582,23 @@
       </c>
       <c r="E3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,6 +635,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -88,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["7e2bb13d-b2e4-11e7-93d8-5254001aba5d","7e2c4e7a-b2e4-11e7-93d8-5254001aba5d","7e2cf1a7-b2e4-11e7-93d8-5254001aba5d","7e2dba5c-b2e4-11e7-93d8-5254001aba5d","7e2f1608-b2e4-11e7-93d8-5254001aba5d"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["7e2fc6f6-b2e4-11e7-93d8-5254001aba5d","7e306cb1-b2e4-11e7-93d8-5254001aba5d","7e3142f6-b2e4-11e7-93d8-5254001aba5d","7e31ef71-b2e4-11e7-93d8-5254001aba5d","7e3324f3-b2e4-11e7-93d8-5254001aba5d"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TransferIn_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,7 +115,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["b8a23753-0f75-11e7-9aa4-00163e007053"]</t>
+    <t>["$csv{data.Auth.user_10.employee_id}","$csv{data.Auth.user_11.employee_id}","$csv{data.Auth.user_12.employee_id}","$csv{data.Auth.user_13.employee_id}","$csv{data.Auth.user_15.employee_id}"]</t>
+  </si>
+  <si>
+    <t>["$csv{data.Auth.user_16.employee_id}","$csv{data.Auth.user_17.employee_id}","$csv{data.Auth.user_18.employee_id}","$csv{data.Auth.user_19.employee_id}","$csv{data.Auth.user_20.employee_id}"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["$csv{data.Auth.user_houlong.employee_id}"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +520,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,47 +557,47 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -632,12 +631,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/TransferIn.xlsx
+++ b/sources/case/TransferIn.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>CaseID</t>
   </si>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TransferIn_3</t>
   </si>
   <si>
@@ -111,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>["$csv{data.Auth.user_10.employee_id}","$csv{data.Auth.user_11.employee_id}","$csv{data.Auth.user_12.employee_id}","$csv{data.Auth.user_13.employee_id}","$csv{data.Auth.user_15.employee_id}"]</t>
   </si>
   <si>
@@ -124,6 +112,19 @@
   <si>
     <t>["$csv{data.Auth.user_houlong.employee_id}"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_3.uuid}</t>
   </si>
 </sst>
 </file>
@@ -520,15 +521,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -574,30 +575,30 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +637,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
